--- a/Introduction to Software, Programming, and Databases/LibreOffice.xlsx
+++ b/Introduction to Software, Programming, and Databases/LibreOffice.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27123"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6170807F-8E3B-4F6F-8279-231D99FBFF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8472"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Item</t>
   </si>
@@ -50,36 +54,16 @@
   <si>
     <t>Amount</t>
   </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Credit Card</t>
-  </si>
-  <si>
-    <t>Lodging</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +74,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -113,10 +104,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,12 +119,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,23 +440,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,221 +476,108 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>45256</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>45264</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="F2" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>45257</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
       <c r="F3" s="4">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>45258</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="F4" s="4">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>45259</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="F5" s="4">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>45260</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
       <c r="F6" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>45261</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>45262</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>45263</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>45264</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>45265</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75">
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5">
-        <f>SUM(F2:F11)</f>
-        <v>7870</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E13" s="1"/>
+      <c r="F13" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{3FBF1847-B495-488C-97DE-EB0B228F14C6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11">
       <formula1>"Travel, Lodging, Food"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E11" xr:uid="{0D5A3BDD-8674-4941-AC15-21D2BBA6F906}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E11">
       <formula1>"Cash, Credit Card"</formula1>
     </dataValidation>
   </dataValidations>
